--- a/Jogos_do_Dia_FlashScore/2024-03-11_Jogos_do_Dia_FlashScore.xlsx
+++ b/Jogos_do_Dia_FlashScore/2024-03-11_Jogos_do_Dia_FlashScore.xlsx
@@ -1672,19 +1672,19 @@
         <v>303</v>
       </c>
       <c r="H4">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="I4">
-        <v>2.75</v>
+        <v>3.35</v>
       </c>
       <c r="J4">
-        <v>3.86</v>
+        <v>4.8</v>
       </c>
       <c r="K4">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="L4">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="M4">
         <v>1.05</v>
@@ -1693,22 +1693,22 @@
         <v>8</v>
       </c>
       <c r="O4">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="Q4">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="S4">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="T4">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -1717,61 +1717,61 @@
         <v>1.05</v>
       </c>
       <c r="W4">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="X4">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="AC4">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD4">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF4">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AG4">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="AH4">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AI4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ4">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AK4">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="AL4">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AM4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN4">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AO4">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AP4">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="AQ4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR4">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AS4">
-        <v>101</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1796,6 +1796,114 @@
       <c r="G5" t="s">
         <v>304</v>
       </c>
+      <c r="H5">
+        <v>3.7</v>
+      </c>
+      <c r="I5">
+        <v>3.1</v>
+      </c>
+      <c r="J5">
+        <v>1.95</v>
+      </c>
+      <c r="K5">
+        <v>1.39</v>
+      </c>
+      <c r="L5">
+        <v>2.45</v>
+      </c>
+      <c r="M5">
+        <v>1.02</v>
+      </c>
+      <c r="N5">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O5">
+        <v>1.26</v>
+      </c>
+      <c r="P5">
+        <v>3.34</v>
+      </c>
+      <c r="Q5">
+        <v>1.83</v>
+      </c>
+      <c r="R5">
+        <v>1.82</v>
+      </c>
+      <c r="S5">
+        <v>3.08</v>
+      </c>
+      <c r="T5">
+        <v>1.3</v>
+      </c>
+      <c r="U5">
+        <v>5.6</v>
+      </c>
+      <c r="V5">
+        <v>1.11</v>
+      </c>
+      <c r="W5">
+        <v>1.72</v>
+      </c>
+      <c r="X5">
+        <v>2.07</v>
+      </c>
+      <c r="AA5">
+        <v>1.75</v>
+      </c>
+      <c r="AB5">
+        <v>1.87</v>
+      </c>
+      <c r="AC5">
+        <v>9.5</v>
+      </c>
+      <c r="AD5">
+        <v>6.3</v>
+      </c>
+      <c r="AE5">
+        <v>8</v>
+      </c>
+      <c r="AF5">
+        <v>14.5</v>
+      </c>
+      <c r="AG5">
+        <v>10</v>
+      </c>
+      <c r="AH5">
+        <v>5.4</v>
+      </c>
+      <c r="AI5">
+        <v>7</v>
+      </c>
+      <c r="AJ5">
+        <v>13</v>
+      </c>
+      <c r="AK5">
+        <v>18</v>
+      </c>
+      <c r="AL5">
+        <v>10</v>
+      </c>
+      <c r="AM5">
+        <v>10.25</v>
+      </c>
+      <c r="AN5">
+        <v>19.5</v>
+      </c>
+      <c r="AO5">
+        <v>45</v>
+      </c>
+      <c r="AP5">
+        <v>25</v>
+      </c>
+      <c r="AQ5">
+        <v>26</v>
+      </c>
+      <c r="AR5">
+        <v>40</v>
+      </c>
+      <c r="AS5">
+        <v>250</v>
+      </c>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" t="s">
@@ -1820,19 +1928,19 @@
         <v>303</v>
       </c>
       <c r="H6">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="I6">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J6">
-        <v>4.31</v>
+        <v>4.1</v>
       </c>
       <c r="K6">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="L6">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="M6">
         <v>1.09</v>
@@ -1841,82 +1949,88 @@
         <v>6.3</v>
       </c>
       <c r="O6">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P6">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q6">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="R6">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S6">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="T6">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V6">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W6">
-        <v>2.46</v>
+        <v>2.23</v>
       </c>
       <c r="X6">
-        <v>1.52</v>
+        <v>1.62</v>
+      </c>
+      <c r="Y6">
+        <v>1.78</v>
+      </c>
+      <c r="Z6">
+        <v>1.82</v>
       </c>
       <c r="AC6">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AD6">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="AE6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF6">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AG6">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="AH6">
         <v>5.5</v>
       </c>
       <c r="AI6">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK6">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AL6">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AM6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN6">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AO6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6">
         <v>15</v>
       </c>
       <c r="AQ6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AR6">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="AS6">
         <v>101</v>
@@ -1978,7 +2092,7 @@
         <v>1.47</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="T7">
         <v>1.14</v>
@@ -1990,10 +2104,10 @@
         <v>1.02</v>
       </c>
       <c r="W7">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="X7">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AC7">
         <v>6.6</v>
@@ -2130,13 +2244,13 @@
         <v>7.2</v>
       </c>
       <c r="AD8">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AE8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF8">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG8">
         <v>5.2</v>
@@ -2145,10 +2259,10 @@
         <v>6.8</v>
       </c>
       <c r="AI8">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ8">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK8">
         <v>6.6</v>
@@ -2157,10 +2271,10 @@
         <v>8.5</v>
       </c>
       <c r="AM8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN8">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AO8">
         <v>12</v>
@@ -2169,7 +2283,7 @@
         <v>15.5</v>
       </c>
       <c r="AQ8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR8">
         <v>150</v>
@@ -2225,10 +2339,10 @@
         <v>4</v>
       </c>
       <c r="Q9">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S9">
         <v>2.75</v>
@@ -2285,7 +2399,7 @@
         <v>15</v>
       </c>
       <c r="AK9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL9">
         <v>12</v>
@@ -2347,20 +2461,44 @@
         <v>1.72</v>
       </c>
       <c r="L10">
-        <v>1.82</v>
+        <v>1.83</v>
+      </c>
+      <c r="M10">
+        <v>1.15</v>
+      </c>
+      <c r="N10">
+        <v>4.8</v>
       </c>
       <c r="O10">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="P10">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="Q10">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="R10">
         <v>1.3</v>
       </c>
+      <c r="S10">
+        <v>6.15</v>
+      </c>
+      <c r="T10">
+        <v>1.09</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>1.02</v>
+      </c>
+      <c r="W10">
+        <v>2.75</v>
+      </c>
+      <c r="X10">
+        <v>1.43</v>
+      </c>
       <c r="Y10">
         <v>1.72</v>
       </c>
@@ -2368,22 +2506,22 @@
         <v>1.88</v>
       </c>
       <c r="AC10">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD10">
         <v>8.25</v>
       </c>
       <c r="AE10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF10">
         <v>120</v>
       </c>
       <c r="AG10">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AH10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AI10">
         <v>17.5</v>
@@ -2392,13 +2530,13 @@
         <v>80</v>
       </c>
       <c r="AK10">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AL10">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AM10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN10">
         <v>90</v>
@@ -2407,10 +2545,10 @@
         <v>11.75</v>
       </c>
       <c r="AP10">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ10">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR10">
         <v>150</v>
@@ -2439,13 +2577,13 @@
         <v>302</v>
       </c>
       <c r="H11">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I11">
         <v>3.2</v>
       </c>
       <c r="J11">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K11">
         <v>1.4</v>
@@ -2490,40 +2628,40 @@
         <v>1.98</v>
       </c>
       <c r="Y11">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Z11">
         <v>1.78</v>
       </c>
       <c r="AC11">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD11">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE11">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG11">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AH11">
         <v>5.5</v>
       </c>
       <c r="AI11">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK11">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AL11">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AM11">
         <v>12</v>
@@ -2538,7 +2676,7 @@
         <v>12.5</v>
       </c>
       <c r="AQ11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR11">
         <v>50</v>
@@ -2573,28 +2711,28 @@
         <v>2.87</v>
       </c>
       <c r="I12">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J12">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="K12">
         <v>1.5</v>
       </c>
       <c r="L12">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="M12">
         <v>1.08</v>
       </c>
       <c r="N12">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="O12">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P12">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
         <v>2.15</v>
@@ -2603,7 +2741,7 @@
         <v>1.65</v>
       </c>
       <c r="S12">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T12">
         <v>1.24</v>
@@ -2630,22 +2768,22 @@
         <v>1.55</v>
       </c>
       <c r="AB12">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="AC12">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AD12">
         <v>7.3</v>
       </c>
       <c r="AE12">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG12">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AH12">
         <v>6</v>
@@ -2660,13 +2798,13 @@
         <v>13.5</v>
       </c>
       <c r="AL12">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM12">
         <v>15</v>
       </c>
       <c r="AN12">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO12">
         <v>35</v>
@@ -2675,7 +2813,7 @@
         <v>27</v>
       </c>
       <c r="AQ12">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR12">
         <v>80</v>
@@ -2707,109 +2845,109 @@
         <v>308</v>
       </c>
       <c r="H13">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="I13">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J13">
-        <v>4.1</v>
+        <v>4.55</v>
       </c>
       <c r="K13">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="L13">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="M13">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="O13">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="P13">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="Q13">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="R13">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="S13">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T13">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="U13">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V13">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W13">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="X13">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Y13">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="Z13">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AC13">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AD13">
         <v>8.75</v>
       </c>
       <c r="AE13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF13">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG13">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="AH13">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ13">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AK13">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AL13">
         <v>9.25</v>
       </c>
       <c r="AM13">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AN13">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AO13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP13">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ13">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR13">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS13">
         <v>900</v>
@@ -2838,13 +2976,13 @@
         <v>303</v>
       </c>
       <c r="H14">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="I14">
         <v>3.25</v>
       </c>
       <c r="J14">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="K14">
         <v>1.55</v>
@@ -2889,16 +3027,16 @@
         <v>1.73</v>
       </c>
       <c r="Y14">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="Z14">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA14">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AB14">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="AC14">
         <v>7.5</v>
@@ -2907,16 +3045,16 @@
         <v>7</v>
       </c>
       <c r="AE14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14">
         <v>29</v>
       </c>
       <c r="AG14">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH14">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI14">
         <v>11</v>
@@ -2925,19 +3063,19 @@
         <v>26</v>
       </c>
       <c r="AK14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN14">
         <v>41</v>
       </c>
       <c r="AO14">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP14">
         <v>23</v>
@@ -2981,13 +3119,13 @@
         <v>3</v>
       </c>
       <c r="J15">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="L15">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="M15">
         <v>1.03</v>
@@ -2996,22 +3134,22 @@
         <v>9</v>
       </c>
       <c r="O15">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P15">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="Q15">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="T15">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="U15">
         <v>6.1</v>
@@ -3020,61 +3158,61 @@
         <v>1.09</v>
       </c>
       <c r="W15">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="X15">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AC15">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD15">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AE15">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG15">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH15">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AI15">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AJ15">
+        <v>21</v>
+      </c>
+      <c r="AK15">
+        <v>10.5</v>
+      </c>
+      <c r="AL15">
+        <v>7.4</v>
+      </c>
+      <c r="AM15">
+        <v>9.75</v>
+      </c>
+      <c r="AN15">
+        <v>24</v>
+      </c>
+      <c r="AO15">
+        <v>20</v>
+      </c>
+      <c r="AP15">
+        <v>14.5</v>
+      </c>
+      <c r="AQ15">
         <v>19</v>
       </c>
-      <c r="AK15">
-        <v>10</v>
-      </c>
-      <c r="AL15">
-        <v>8</v>
-      </c>
-      <c r="AM15">
-        <v>11</v>
-      </c>
-      <c r="AN15">
-        <v>23</v>
-      </c>
-      <c r="AO15">
-        <v>19</v>
-      </c>
-      <c r="AP15">
-        <v>15</v>
-      </c>
-      <c r="AQ15">
-        <v>23</v>
-      </c>
       <c r="AR15">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AS15">
-        <v>101</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3099,6 +3237,114 @@
       <c r="G16" t="s">
         <v>304</v>
       </c>
+      <c r="H16">
+        <v>4.15</v>
+      </c>
+      <c r="I16">
+        <v>3.2</v>
+      </c>
+      <c r="J16">
+        <v>1.8</v>
+      </c>
+      <c r="K16">
+        <v>1.5</v>
+      </c>
+      <c r="L16">
+        <v>2.15</v>
+      </c>
+      <c r="M16">
+        <v>1.07</v>
+      </c>
+      <c r="N16">
+        <v>6.7</v>
+      </c>
+      <c r="O16">
+        <v>1.47</v>
+      </c>
+      <c r="P16">
+        <v>2.35</v>
+      </c>
+      <c r="Q16">
+        <v>2.35</v>
+      </c>
+      <c r="R16">
+        <v>1.47</v>
+      </c>
+      <c r="S16">
+        <v>4.65</v>
+      </c>
+      <c r="T16">
+        <v>1.14</v>
+      </c>
+      <c r="U16">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="V16">
+        <v>1.03</v>
+      </c>
+      <c r="W16">
+        <v>2.14</v>
+      </c>
+      <c r="X16">
+        <v>1.67</v>
+      </c>
+      <c r="AA16">
+        <v>1.87</v>
+      </c>
+      <c r="AB16">
+        <v>1.75</v>
+      </c>
+      <c r="AC16">
+        <v>6.7</v>
+      </c>
+      <c r="AD16">
+        <v>4.5</v>
+      </c>
+      <c r="AE16">
+        <v>6</v>
+      </c>
+      <c r="AF16">
+        <v>11.25</v>
+      </c>
+      <c r="AG16">
+        <v>7.4</v>
+      </c>
+      <c r="AH16">
+        <v>5.6</v>
+      </c>
+      <c r="AI16">
+        <v>7.6</v>
+      </c>
+      <c r="AJ16">
+        <v>14.5</v>
+      </c>
+      <c r="AK16">
+        <v>16.5</v>
+      </c>
+      <c r="AL16">
+        <v>12.5</v>
+      </c>
+      <c r="AM16">
+        <v>17</v>
+      </c>
+      <c r="AN16">
+        <v>32</v>
+      </c>
+      <c r="AO16">
+        <v>50</v>
+      </c>
+      <c r="AP16">
+        <v>40</v>
+      </c>
+      <c r="AQ16">
+        <v>55</v>
+      </c>
+      <c r="AR16">
+        <v>100</v>
+      </c>
+      <c r="AS16">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:45">
       <c r="A17" t="s">
@@ -3122,6 +3368,108 @@
       <c r="G17" t="s">
         <v>304</v>
       </c>
+      <c r="H17">
+        <v>2.3</v>
+      </c>
+      <c r="I17">
+        <v>3.1</v>
+      </c>
+      <c r="J17">
+        <v>2.8</v>
+      </c>
+      <c r="K17">
+        <v>1.47</v>
+      </c>
+      <c r="L17">
+        <v>2.22</v>
+      </c>
+      <c r="M17">
+        <v>1.06</v>
+      </c>
+      <c r="N17">
+        <v>7.3</v>
+      </c>
+      <c r="O17">
+        <v>1.41</v>
+      </c>
+      <c r="P17">
+        <v>2.6</v>
+      </c>
+      <c r="Q17">
+        <v>2.18</v>
+      </c>
+      <c r="R17">
+        <v>1.53</v>
+      </c>
+      <c r="S17">
+        <v>4.25</v>
+      </c>
+      <c r="T17">
+        <v>1.17</v>
+      </c>
+      <c r="U17">
+        <v>8.1</v>
+      </c>
+      <c r="V17">
+        <v>1.04</v>
+      </c>
+      <c r="W17">
+        <v>1.94</v>
+      </c>
+      <c r="X17">
+        <v>1.82</v>
+      </c>
+      <c r="AC17">
+        <v>7.5</v>
+      </c>
+      <c r="AD17">
+        <v>6.3</v>
+      </c>
+      <c r="AE17">
+        <v>10.75</v>
+      </c>
+      <c r="AF17">
+        <v>25</v>
+      </c>
+      <c r="AG17">
+        <v>5.6</v>
+      </c>
+      <c r="AH17">
+        <v>5.4</v>
+      </c>
+      <c r="AI17">
+        <v>9</v>
+      </c>
+      <c r="AJ17">
+        <v>22</v>
+      </c>
+      <c r="AK17">
+        <v>8.5</v>
+      </c>
+      <c r="AL17">
+        <v>8</v>
+      </c>
+      <c r="AM17">
+        <v>13.5</v>
+      </c>
+      <c r="AN17">
+        <v>32</v>
+      </c>
+      <c r="AO17">
+        <v>18</v>
+      </c>
+      <c r="AP17">
+        <v>17</v>
+      </c>
+      <c r="AQ17">
+        <v>29</v>
+      </c>
+      <c r="AR17">
+        <v>70</v>
+      </c>
+      <c r="AS17">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:45">
       <c r="A18" t="s">
@@ -3286,16 +3634,16 @@
         <v>1.65</v>
       </c>
       <c r="I19">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J19">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K19">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="L19">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="M19">
         <v>10.5</v>
@@ -3322,7 +3670,7 @@
         <v>1.37</v>
       </c>
       <c r="U19">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="V19">
         <v>1.12</v>
@@ -3334,22 +3682,22 @@
         <v>1.93</v>
       </c>
       <c r="AC19">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD19">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE19">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF19">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG19">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH19">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI19">
         <v>15</v>
@@ -3361,7 +3709,7 @@
         <v>8.25</v>
       </c>
       <c r="AL19">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AM19">
         <v>14.5</v>
@@ -3411,10 +3759,10 @@
         <v>1.55</v>
       </c>
       <c r="I20">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J20">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="K20">
         <v>1.28</v>
@@ -3426,7 +3774,7 @@
         <v>1.02</v>
       </c>
       <c r="N20">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="O20">
         <v>1.16</v>
@@ -3459,22 +3807,22 @@
         <v>2.2</v>
       </c>
       <c r="AC20">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD20">
         <v>13</v>
       </c>
       <c r="AE20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF20">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG20">
         <v>7.4</v>
       </c>
       <c r="AH20">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI20">
         <v>12.5</v>
@@ -3483,16 +3831,16 @@
         <v>32</v>
       </c>
       <c r="AK20">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AL20">
         <v>7</v>
       </c>
       <c r="AM20">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO20">
         <v>10</v>
@@ -3504,7 +3852,7 @@
         <v>17</v>
       </c>
       <c r="AR20">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS20">
         <v>250</v>
@@ -3608,7 +3956,7 @@
         <v>41</v>
       </c>
       <c r="AG21">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH21">
         <v>6.5</v>
@@ -3709,7 +4057,7 @@
         <v>1.34</v>
       </c>
       <c r="U22">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="V22">
         <v>1.13</v>
@@ -3730,16 +4078,16 @@
         <v>7.5</v>
       </c>
       <c r="AD22">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF22">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG22">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH22">
         <v>6.5</v>
@@ -3748,10 +4096,10 @@
         <v>10.75</v>
       </c>
       <c r="AJ22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK22">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AL22">
         <v>8.75</v>
@@ -3760,16 +4108,16 @@
         <v>13</v>
       </c>
       <c r="AN22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO22">
         <v>21</v>
       </c>
       <c r="AP22">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR22">
         <v>55</v>
@@ -3801,19 +4149,19 @@
         <v>311</v>
       </c>
       <c r="H23">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I23">
         <v>3.6</v>
       </c>
       <c r="J23">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K23">
         <v>1.42</v>
       </c>
       <c r="L23">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="M23">
         <v>1.05</v>
@@ -3852,16 +4200,16 @@
         <v>2</v>
       </c>
       <c r="Y23">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="Z23">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AA23">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AB23">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AC23">
         <v>11</v>
@@ -3870,28 +4218,28 @@
         <v>8</v>
       </c>
       <c r="AE23">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF23">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH23">
         <v>6.5</v>
       </c>
       <c r="AI23">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK23">
         <v>19</v>
       </c>
       <c r="AL23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM23">
         <v>15</v>
@@ -3909,7 +4257,7 @@
         <v>34</v>
       </c>
       <c r="AR23">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS23">
         <v>201</v>
@@ -3968,7 +4316,7 @@
         <v>1.85</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S24">
         <v>2.8</v>
@@ -3992,7 +4340,7 @@
         <v>9.75</v>
       </c>
       <c r="AD24">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AE24">
         <v>15</v>
@@ -4001,7 +4349,7 @@
         <v>35</v>
       </c>
       <c r="AG24">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH24">
         <v>6</v>
@@ -4022,16 +4370,16 @@
         <v>12</v>
       </c>
       <c r="AN24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO24">
         <v>28</v>
       </c>
       <c r="AP24">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR24">
         <v>50</v>
@@ -4120,10 +4468,10 @@
         <v>1.35</v>
       </c>
       <c r="AA25">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AB25">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AC25">
         <v>7.5</v>
@@ -4203,100 +4551,100 @@
         <v>4.75</v>
       </c>
       <c r="I26">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J26">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K26">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="L26">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="M26">
+        <v>1.08</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+      <c r="O26">
+        <v>1.4</v>
+      </c>
+      <c r="P26">
+        <v>2.75</v>
+      </c>
+      <c r="Q26">
+        <v>2.25</v>
+      </c>
+      <c r="R26">
+        <v>1.62</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>1.22</v>
+      </c>
+      <c r="U26">
+        <v>10</v>
+      </c>
+      <c r="V26">
         <v>1.06</v>
       </c>
-      <c r="N26">
-        <v>9.5</v>
-      </c>
-      <c r="O26">
-        <v>1.3</v>
-      </c>
-      <c r="P26">
-        <v>3.4</v>
-      </c>
-      <c r="Q26">
-        <v>2.05</v>
-      </c>
-      <c r="R26">
-        <v>1.8</v>
-      </c>
-      <c r="S26">
-        <v>3.5</v>
-      </c>
-      <c r="T26">
-        <v>1.29</v>
-      </c>
-      <c r="U26">
-        <v>7</v>
-      </c>
-      <c r="V26">
-        <v>1.1</v>
-      </c>
       <c r="W26">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X26">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Y26">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z26">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AA26">
         <v>2.05</v>
       </c>
       <c r="AB26">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AC26">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD26">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE26">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH26">
         <v>6.5</v>
       </c>
       <c r="AI26">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ26">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK26">
         <v>23</v>
       </c>
       <c r="AL26">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM26">
         <v>17</v>
       </c>
       <c r="AN26">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO26">
         <v>51</v>
@@ -4305,10 +4653,10 @@
         <v>41</v>
       </c>
       <c r="AQ26">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR26">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS26">
         <v>301</v>
@@ -4337,13 +4685,13 @@
         <v>303</v>
       </c>
       <c r="H27">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I27">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J27">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K27">
         <v>1.53</v>
@@ -4352,10 +4700,10 @@
         <v>2.47</v>
       </c>
       <c r="M27">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O27">
         <v>1.4</v>
@@ -4388,25 +4736,25 @@
         <v>1.75</v>
       </c>
       <c r="Y27">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Z27">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AA27">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AB27">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AC27">
         <v>8</v>
       </c>
       <c r="AD27">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE27">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF27">
         <v>41</v>
@@ -4418,13 +4766,13 @@
         <v>6.5</v>
       </c>
       <c r="AI27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ27">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK27">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL27">
         <v>9</v>
@@ -4436,10 +4784,10 @@
         <v>41</v>
       </c>
       <c r="AO27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP27">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ27">
         <v>34</v>
@@ -4483,16 +4831,16 @@
         <v>3.4</v>
       </c>
       <c r="K28">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="L28">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="M28">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O28">
         <v>1.44</v>
@@ -4531,10 +4879,10 @@
         <v>1.65</v>
       </c>
       <c r="AA28">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AB28">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AC28">
         <v>7</v>
@@ -4585,7 +4933,7 @@
         <v>51</v>
       </c>
       <c r="AS28">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -4611,19 +4959,19 @@
         <v>314</v>
       </c>
       <c r="H29">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>3.6</v>
       </c>
       <c r="J29">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K29">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="L29">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M29">
         <v>1.04</v>
@@ -4638,22 +4986,22 @@
         <v>4</v>
       </c>
       <c r="Q29">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R29">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S29">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T29">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U29">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V29">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W29">
         <v>1.67</v>
@@ -4668,16 +5016,16 @@
         <v>1.28</v>
       </c>
       <c r="AA29">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AB29">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AC29">
         <v>13</v>
       </c>
       <c r="AD29">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE29">
         <v>10</v>
@@ -4686,7 +5034,7 @@
         <v>17</v>
       </c>
       <c r="AG29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH29">
         <v>7</v>
@@ -4701,13 +5049,13 @@
         <v>21</v>
       </c>
       <c r="AL29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM29">
         <v>13</v>
       </c>
       <c r="AN29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO29">
         <v>41</v>
@@ -4748,13 +5096,13 @@
         <v>315</v>
       </c>
       <c r="H30">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I30">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J30">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="K30">
         <v>1.37</v>
@@ -4781,7 +5129,7 @@
         <v>2.07</v>
       </c>
       <c r="S30">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T30">
         <v>1.44</v>
@@ -4808,28 +5156,28 @@
         <v>8</v>
       </c>
       <c r="AD30">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE30">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF30">
         <v>35</v>
       </c>
       <c r="AG30">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH30">
         <v>6.5</v>
       </c>
       <c r="AI30">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK30">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL30">
         <v>9</v>
@@ -4838,22 +5186,22 @@
         <v>11.25</v>
       </c>
       <c r="AN30">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO30">
         <v>27</v>
       </c>
       <c r="AP30">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ30">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR30">
         <v>40</v>
       </c>
       <c r="AS30">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -4903,7 +5251,7 @@
         <v>1.11</v>
       </c>
       <c r="P31">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Q31">
         <v>1.35</v>
@@ -4912,13 +5260,13 @@
         <v>2.95</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T31">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U31">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V31">
         <v>1.38</v>
@@ -4939,19 +5287,19 @@
         <v>10.25</v>
       </c>
       <c r="AD31">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE31">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF31">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH31">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AI31">
         <v>8.75</v>
@@ -5010,13 +5358,13 @@
         <v>316</v>
       </c>
       <c r="H32">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="I32">
         <v>5</v>
       </c>
       <c r="J32">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="K32">
         <v>1.23</v>
@@ -5055,10 +5403,10 @@
         <v>1.36</v>
       </c>
       <c r="W32">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X32">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y32">
         <v>1.5</v>
@@ -5070,7 +5418,7 @@
         <v>1.18</v>
       </c>
       <c r="AB32">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="AC32">
         <v>26</v>
@@ -5085,7 +5433,7 @@
         <v>51</v>
       </c>
       <c r="AG32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH32">
         <v>11</v>
@@ -5147,13 +5495,13 @@
         <v>316</v>
       </c>
       <c r="H33">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I33">
         <v>4.33</v>
       </c>
       <c r="J33">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K33">
         <v>1.28</v>
@@ -5192,10 +5540,10 @@
         <v>1.29</v>
       </c>
       <c r="W33">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X33">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y33">
         <v>5</v>
@@ -5204,13 +5552,13 @@
         <v>1.17</v>
       </c>
       <c r="AA33">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AB33">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AC33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD33">
         <v>11</v>
@@ -5225,7 +5573,7 @@
         <v>21</v>
       </c>
       <c r="AH33">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI33">
         <v>8.5</v>
@@ -5284,13 +5632,13 @@
         <v>316</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="I34">
         <v>3.6</v>
       </c>
       <c r="J34">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K34">
         <v>1.38</v>
@@ -5335,22 +5683,22 @@
         <v>2.2</v>
       </c>
       <c r="Y34">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="Z34">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA34">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AB34">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AC34">
         <v>13</v>
       </c>
       <c r="AD34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE34">
         <v>19</v>
@@ -5377,7 +5725,7 @@
         <v>9</v>
       </c>
       <c r="AM34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN34">
         <v>29</v>
@@ -5430,10 +5778,10 @@
         <v>6.5</v>
       </c>
       <c r="K35">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
         <v>1.03</v>
@@ -5442,22 +5790,22 @@
         <v>17</v>
       </c>
       <c r="O35">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q35">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R35">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S35">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T35">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U35">
         <v>4.33</v>
@@ -5496,7 +5844,7 @@
         <v>67</v>
       </c>
       <c r="AG35">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH35">
         <v>9.5</v>
@@ -5511,7 +5859,7 @@
         <v>7.5</v>
       </c>
       <c r="AL35">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM35">
         <v>19</v>
@@ -5567,7 +5915,7 @@
         <v>4.75</v>
       </c>
       <c r="K36">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="L36">
         <v>3</v>
@@ -5695,13 +6043,13 @@
         <v>316</v>
       </c>
       <c r="H37">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="I37">
         <v>4.75</v>
       </c>
       <c r="J37">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="K37">
         <v>1.22</v>
@@ -5716,28 +6064,28 @@
         <v>26</v>
       </c>
       <c r="O37">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q37">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R37">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T37">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U37">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V37">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W37">
         <v>1.44</v>
@@ -5746,19 +6094,19 @@
         <v>2.63</v>
       </c>
       <c r="Y37">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Z37">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="AA37">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AB37">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="AC37">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD37">
         <v>23</v>
@@ -5773,7 +6121,7 @@
         <v>13</v>
       </c>
       <c r="AH37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI37">
         <v>17</v>
@@ -6270,7 +6618,7 @@
         <v>1.44</v>
       </c>
       <c r="S41">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="T41">
         <v>1.16</v>
@@ -6291,31 +6639,31 @@
         <v>6</v>
       </c>
       <c r="AD41">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE41">
         <v>13</v>
       </c>
       <c r="AF41">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG41">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AH41">
         <v>5.4</v>
       </c>
       <c r="AI41">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ41">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK41">
         <v>13</v>
       </c>
       <c r="AL41">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM41">
         <v>16</v>
@@ -6327,10 +6675,10 @@
         <v>35</v>
       </c>
       <c r="AP41">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ41">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR41">
         <v>100</v>
@@ -6362,13 +6710,13 @@
         <v>311</v>
       </c>
       <c r="H42">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="I42">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J42">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="K42">
         <v>1.62</v>
@@ -6407,40 +6755,40 @@
         <v>1.05</v>
       </c>
       <c r="W42">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X42">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y42">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Z42">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AA42">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AB42">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AC42">
         <v>6.5</v>
       </c>
       <c r="AD42">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE42">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF42">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG42">
         <v>5.5</v>
       </c>
       <c r="AH42">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI42">
         <v>15</v>
@@ -6449,22 +6797,22 @@
         <v>41</v>
       </c>
       <c r="AK42">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL42">
         <v>9.5</v>
       </c>
       <c r="AM42">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN42">
         <v>51</v>
       </c>
       <c r="AO42">
+        <v>17</v>
+      </c>
+      <c r="AP42">
         <v>19</v>
-      </c>
-      <c r="AP42">
-        <v>21</v>
       </c>
       <c r="AQ42">
         <v>41</v>
@@ -6511,7 +6859,7 @@
         <v>1.55</v>
       </c>
       <c r="L43">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="M43">
         <v>1.1</v>
@@ -6559,16 +6907,16 @@
         <v>6</v>
       </c>
       <c r="AD43">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE43">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF43">
         <v>28</v>
       </c>
       <c r="AG43">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AH43">
         <v>5.9</v>
@@ -6577,10 +6925,10 @@
         <v>10</v>
       </c>
       <c r="AJ43">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK43">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL43">
         <v>10.5</v>
@@ -6589,16 +6937,16 @@
         <v>16</v>
       </c>
       <c r="AN43">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO43">
         <v>32</v>
       </c>
       <c r="AP43">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ43">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR43">
         <v>90</v>
@@ -6645,10 +6993,10 @@
         <v>2.52</v>
       </c>
       <c r="M44">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N44">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O44">
         <v>1.4</v>
@@ -6657,10 +7005,10 @@
         <v>3</v>
       </c>
       <c r="Q44">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R44">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S44">
         <v>4</v>
@@ -6681,16 +7029,16 @@
         <v>1.75</v>
       </c>
       <c r="Y44">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Z44">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="AA44">
         <v>1.23</v>
       </c>
       <c r="AB44">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AC44">
         <v>8.5</v>
@@ -6785,7 +7133,7 @@
         <v>1.09</v>
       </c>
       <c r="N45">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="O45">
         <v>1.42</v>
@@ -6794,10 +7142,10 @@
         <v>2.65</v>
       </c>
       <c r="Q45">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="R45">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S45">
         <v>3.95</v>
@@ -6812,10 +7160,10 @@
         <v>1.07</v>
       </c>
       <c r="W45">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X45">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA45">
         <v>1.75</v>
@@ -6824,10 +7172,10 @@
         <v>2</v>
       </c>
       <c r="AC45">
+        <v>6.1</v>
+      </c>
+      <c r="AD45">
         <v>6</v>
-      </c>
-      <c r="AD45">
-        <v>6.1</v>
       </c>
       <c r="AE45">
         <v>8.75</v>
@@ -6836,19 +7184,19 @@
         <v>18</v>
       </c>
       <c r="AG45">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH45">
         <v>6.1</v>
       </c>
       <c r="AI45">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ45">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK45">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL45">
         <v>13</v>
@@ -6863,16 +7211,16 @@
         <v>55</v>
       </c>
       <c r="AP45">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ45">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR45">
         <v>100</v>
       </c>
       <c r="AS45">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:45">
@@ -6937,7 +7285,7 @@
         <v>1.17</v>
       </c>
       <c r="U46">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="V46">
         <v>1.05</v>
@@ -6958,7 +7306,7 @@
         <v>5.5</v>
       </c>
       <c r="AD46">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE46">
         <v>21</v>
@@ -6967,7 +7315,7 @@
         <v>75</v>
       </c>
       <c r="AG46">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AH46">
         <v>6.1</v>
@@ -6976,10 +7324,10 @@
         <v>15</v>
       </c>
       <c r="AJ46">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK46">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AL46">
         <v>9</v>
@@ -6988,13 +7336,13 @@
         <v>19.5</v>
       </c>
       <c r="AN46">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO46">
         <v>16.5</v>
       </c>
       <c r="AP46">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ46">
         <v>40</v>
@@ -7038,10 +7386,10 @@
         <v>3.4</v>
       </c>
       <c r="K47">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="L47">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="M47">
         <v>1.1</v>
@@ -7050,10 +7398,10 @@
         <v>7</v>
       </c>
       <c r="O47">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P47">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q47">
         <v>2.5</v>
@@ -7166,13 +7514,13 @@
         <v>320</v>
       </c>
       <c r="H48">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="I48">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J48">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="K48">
         <v>1.52</v>
@@ -7187,10 +7535,10 @@
         <v>6.2</v>
       </c>
       <c r="O48">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P48">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Q48">
         <v>2.3</v>
@@ -7202,7 +7550,7 @@
         <v>4</v>
       </c>
       <c r="T48">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U48">
         <v>7</v>
@@ -7211,55 +7559,55 @@
         <v>1.07</v>
       </c>
       <c r="W48">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="X48">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Y48">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z48">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AC48">
         <v>6.2</v>
       </c>
       <c r="AD48">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AE48">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF48">
         <v>110</v>
       </c>
       <c r="AG48">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AH48">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AI48">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ48">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK48">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AL48">
         <v>8.75</v>
       </c>
       <c r="AM48">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN48">
         <v>90</v>
       </c>
       <c r="AO48">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP48">
         <v>15.5</v>
@@ -7360,13 +7708,13 @@
         <v>9</v>
       </c>
       <c r="AE49">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF49">
         <v>40</v>
       </c>
       <c r="AG49">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AH49">
         <v>5.9</v>
@@ -7375,10 +7723,10 @@
         <v>10.5</v>
       </c>
       <c r="AJ49">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK49">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AL49">
         <v>9</v>
@@ -7387,7 +7735,7 @@
         <v>13</v>
       </c>
       <c r="AN49">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO49">
         <v>25</v>
@@ -7396,7 +7744,7 @@
         <v>19.5</v>
       </c>
       <c r="AQ49">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR49">
         <v>60</v>
@@ -7461,7 +7809,7 @@
         <v>1.44</v>
       </c>
       <c r="S50">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="T50">
         <v>1.15</v>
@@ -7473,7 +7821,7 @@
         <v>1.04</v>
       </c>
       <c r="W50">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X50">
         <v>1.5</v>
@@ -7488,7 +7836,7 @@
         <v>5.3</v>
       </c>
       <c r="AD50">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AE50">
         <v>25</v>
@@ -7497,10 +7845,10 @@
         <v>100</v>
       </c>
       <c r="AG50">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AH50">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI50">
         <v>18</v>
@@ -7509,7 +7857,7 @@
         <v>70</v>
       </c>
       <c r="AK50">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AL50">
         <v>9.25</v>
@@ -7568,10 +7916,10 @@
         <v>3.6</v>
       </c>
       <c r="K51">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="L51">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
         <v>1.02</v>
@@ -7580,10 +7928,10 @@
         <v>19</v>
       </c>
       <c r="O51">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q51">
         <v>1.44</v>
@@ -7610,16 +7958,16 @@
         <v>2.63</v>
       </c>
       <c r="Y51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z51">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AA51">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AB51">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AC51">
         <v>21</v>
@@ -7696,19 +8044,19 @@
         <v>321</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I52">
         <v>3.3</v>
       </c>
       <c r="J52">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K52">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="L52">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="M52">
         <v>1.06</v>
@@ -7747,16 +8095,16 @@
         <v>2.05</v>
       </c>
       <c r="Y52">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z52">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AA52">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AB52">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AC52">
         <v>10</v>
@@ -7765,7 +8113,7 @@
         <v>8.5</v>
       </c>
       <c r="AE52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF52">
         <v>21</v>
@@ -7777,16 +8125,16 @@
         <v>6.5</v>
       </c>
       <c r="AI52">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ52">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK52">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL52">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM52">
         <v>13</v>
@@ -7798,7 +8146,7 @@
         <v>34</v>
       </c>
       <c r="AP52">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ52">
         <v>34</v>
@@ -7842,10 +8190,10 @@
         <v>2.8</v>
       </c>
       <c r="K53">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="L53">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="M53">
         <v>1.11</v>
@@ -7860,22 +8208,22 @@
         <v>2.5</v>
       </c>
       <c r="Q53">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R53">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S53">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T53">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U53">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V53">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W53">
         <v>2.1</v>
@@ -7982,7 +8330,7 @@
         <v>1.45</v>
       </c>
       <c r="L54">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="M54">
         <v>1.05</v>
@@ -8021,16 +8369,16 @@
         <v>1.91</v>
       </c>
       <c r="Y54">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Z54">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AA54">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AB54">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AC54">
         <v>10</v>
@@ -8116,34 +8464,34 @@
         <v>6.5</v>
       </c>
       <c r="K55">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="L55">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="M55">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N55">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O55">
+        <v>1.29</v>
+      </c>
+      <c r="P55">
+        <v>3.5</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <v>1.85</v>
+      </c>
+      <c r="S55">
+        <v>3.4</v>
+      </c>
+      <c r="T55">
         <v>1.3</v>
-      </c>
-      <c r="P55">
-        <v>3.4</v>
-      </c>
-      <c r="Q55">
-        <v>2.03</v>
-      </c>
-      <c r="R55">
-        <v>1.83</v>
-      </c>
-      <c r="S55">
-        <v>3.5</v>
-      </c>
-      <c r="T55">
-        <v>1.29</v>
       </c>
       <c r="U55">
         <v>7</v>
@@ -8167,7 +8515,7 @@
         <v>1.12</v>
       </c>
       <c r="AB55">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="AC55">
         <v>9.5</v>
@@ -8271,16 +8619,16 @@
         <v>2.5</v>
       </c>
       <c r="Q56">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R56">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S56">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T56">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U56">
         <v>13</v>
@@ -8408,16 +8756,16 @@
         <v>3.4</v>
       </c>
       <c r="Q57">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R57">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T57">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U57">
         <v>7</v>
@@ -8673,7 +9021,7 @@
         <v>1.04</v>
       </c>
       <c r="N59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O59">
         <v>1.22</v>
@@ -8682,10 +9030,10 @@
         <v>4</v>
       </c>
       <c r="Q59">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R59">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
         <v>2.75</v>
@@ -8706,10 +9054,10 @@
         <v>1.83</v>
       </c>
       <c r="Y59">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="Z59">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AA59">
         <v>1.12</v>
@@ -8979,16 +9327,16 @@
         <v>2.1</v>
       </c>
       <c r="Q62">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R62">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S62">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T62">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U62">
         <v>17</v>
@@ -9003,10 +9351,10 @@
         <v>1.5</v>
       </c>
       <c r="Y62">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="Z62">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AA62">
         <v>1.3</v>
@@ -9054,7 +9402,7 @@
         <v>23</v>
       </c>
       <c r="AP62">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ62">
         <v>51</v>
@@ -9152,7 +9500,7 @@
         <v>3.45</v>
       </c>
       <c r="AC63">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD63">
         <v>7.5</v>
@@ -9167,7 +9515,7 @@
         <v>5.5</v>
       </c>
       <c r="AH63">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI63">
         <v>13</v>
@@ -9188,7 +9536,7 @@
         <v>51</v>
       </c>
       <c r="AO63">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP63">
         <v>21</v>
@@ -9241,10 +9589,10 @@
         <v>2.32</v>
       </c>
       <c r="M64">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N64">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O64">
         <v>1.5</v>
@@ -9498,6 +9846,108 @@
       </c>
       <c r="G66" t="s">
         <v>328</v>
+      </c>
+      <c r="H66">
+        <v>1.18</v>
+      </c>
+      <c r="I66">
+        <v>6.1</v>
+      </c>
+      <c r="J66">
+        <v>13</v>
+      </c>
+      <c r="K66">
+        <v>1.22</v>
+      </c>
+      <c r="L66">
+        <v>3.75</v>
+      </c>
+      <c r="M66">
+        <v>1.01</v>
+      </c>
+      <c r="N66">
+        <v>20</v>
+      </c>
+      <c r="O66">
+        <v>1.14</v>
+      </c>
+      <c r="P66">
+        <v>5</v>
+      </c>
+      <c r="Q66">
+        <v>1.5</v>
+      </c>
+      <c r="R66">
+        <v>2.27</v>
+      </c>
+      <c r="S66">
+        <v>2.18</v>
+      </c>
+      <c r="T66">
+        <v>1.53</v>
+      </c>
+      <c r="U66">
+        <v>3.45</v>
+      </c>
+      <c r="V66">
+        <v>1.22</v>
+      </c>
+      <c r="W66">
+        <v>2.27</v>
+      </c>
+      <c r="X66">
+        <v>1.5</v>
+      </c>
+      <c r="AC66">
+        <v>15</v>
+      </c>
+      <c r="AD66">
+        <v>32</v>
+      </c>
+      <c r="AE66">
+        <v>110</v>
+      </c>
+      <c r="AF66">
+        <v>500</v>
+      </c>
+      <c r="AG66">
+        <v>7.5</v>
+      </c>
+      <c r="AH66">
+        <v>13.5</v>
+      </c>
+      <c r="AI66">
+        <v>45</v>
+      </c>
+      <c r="AJ66">
+        <v>200</v>
+      </c>
+      <c r="AK66">
+        <v>5.7</v>
+      </c>
+      <c r="AL66">
+        <v>10.25</v>
+      </c>
+      <c r="AM66">
+        <v>35</v>
+      </c>
+      <c r="AN66">
+        <v>175</v>
+      </c>
+      <c r="AO66">
+        <v>6.3</v>
+      </c>
+      <c r="AP66">
+        <v>11.25</v>
+      </c>
+      <c r="AQ66">
+        <v>37</v>
+      </c>
+      <c r="AR66">
+        <v>200</v>
+      </c>
+      <c r="AS66">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
